--- a/public/assets/files/OrganizationsCSVFileFormat.xlsx
+++ b/public/assets/files/OrganizationsCSVFileFormat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="14355" windowHeight="4695"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="14352" windowHeight="4692"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Primary Email</t>
   </si>
@@ -39,31 +39,80 @@
     <t>Fax</t>
   </si>
   <si>
-    <t>Oragon</t>
-  </si>
-  <si>
-    <t>oragon@gmail.com</t>
-  </si>
-  <si>
-    <t>oragon.com</t>
+    <t>LinkedIn URL</t>
+  </si>
+  <si>
+    <t>Facebook URL</t>
+  </si>
+  <si>
+    <t>Twitter URL</t>
+  </si>
+  <si>
+    <t>Instagram URL</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>NAICS Code</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Annual Revenue</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>OPT OUT</t>
+  </si>
+  <si>
+    <t>Billing Street</t>
+  </si>
+  <si>
+    <t>Billing City</t>
+  </si>
+  <si>
+    <t>Billing State</t>
+  </si>
+  <si>
+    <t>Billing Postal Code</t>
+  </si>
+  <si>
+    <t>Billing Country</t>
+  </si>
+  <si>
+    <t>Shipping Street</t>
+  </si>
+  <si>
+    <t>Shipping City</t>
+  </si>
+  <si>
+    <t>Shipping State</t>
+  </si>
+  <si>
+    <t>Shipping Postal Code</t>
+  </si>
+  <si>
+    <t>Shipping Country</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Created Date &amp; Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,22 +163,25 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -429,23 +481,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A2" sqref="A2:AC6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -467,34 +540,90 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
+    <row r="2" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R2" s="3"/>
+      <c r="AC2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC3" s="4"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC4" s="4"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC5" s="4"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC6" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -505,7 +634,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -517,7 +646,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/assets/files/OrganizationsCSVFileFormat.xlsx
+++ b/public/assets/files/OrganizationsCSVFileFormat.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\arkonorllc-crm\public\assets\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCE905F-2DDA-4921-8296-F66597E42D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="14352" windowHeight="4692"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -108,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -190,6 +194,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -237,7 +244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,9 +277,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,6 +329,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -480,45 +521,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AC6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -607,47 +648,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="R2" s="3"/>
       <c r="AC2" s="4"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="AC3" s="4"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="AC4" s="4"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="AC6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>